--- a/Examples/gorc/gorc_model.xlsx
+++ b/Examples/gorc/gorc_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\ExIOLab\Examples\gorc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\gorc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A061361E-C4AB-41F1-8505-2C5A06265207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA1F331-A1E5-436F-B425-AC8833766DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="2325" windowWidth="22275" windowHeight="12270" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="690" windowWidth="25740" windowHeight="14700" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
   </sheets>
   <definedNames>
     <definedName name="cgam_flows" localSheetId="2">Flows!$A$1:$B$16</definedName>
-    <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$E$8</definedName>
+    <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$D$8</definedName>
     <definedName name="cgam_sample" localSheetId="4">Exergy!$A$1:$C$14</definedName>
     <definedName name="cgam_sample" localSheetId="9">Exergy0!$A$1:$C$14</definedName>
     <definedName name="tgas_fmt" localSheetId="5">Format!$A$1:$D$7</definedName>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="109">
   <si>
     <t>RESOURCE</t>
   </si>
@@ -378,9 +378,6 @@
   </si>
   <si>
     <t>(kW)</t>
-  </si>
-  <si>
-    <t>flow</t>
   </si>
   <si>
     <t>QC</t>
@@ -504,16 +501,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -543,7 +540,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8382000" y="1714500"/>
+          <a:off x="6534150" y="1400175"/>
           <a:ext cx="7772400" cy="6124575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -883,10 +880,10 @@
         <v>78</v>
       </c>
       <c r="C1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" t="s">
         <v>106</v>
-      </c>
-      <c r="D1" t="s">
-        <v>107</v>
       </c>
       <c r="E1" t="s">
         <v>79</v>
@@ -1291,7 +1288,7 @@
         <v>45</v>
       </c>
       <c r="E1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1805,7 +1802,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -1813,7 +1810,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -1891,16 +1888,16 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
     <col min="6" max="6" width="10.140625" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
   </cols>
@@ -1910,7 +1907,7 @@
         <v>41</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>59</v>
@@ -1919,24 +1916,24 @@
         <v>66</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1944,16 +1941,16 @@
         <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
         <v>67</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1961,7 +1958,7 @@
         <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
         <v>60</v>
@@ -1970,7 +1967,7 @@
         <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1978,7 +1975,7 @@
         <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
         <v>61</v>
@@ -1987,7 +1984,7 @@
         <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1995,16 +1992,16 @@
         <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2012,7 +2009,7 @@
         <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
         <v>62</v>
@@ -2021,7 +2018,7 @@
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2029,7 +2026,7 @@
         <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
         <v>63</v>
@@ -2038,7 +2035,7 @@
         <v>71</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2046,7 +2043,7 @@
         <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
         <v>64</v>
@@ -2055,7 +2052,7 @@
         <v>72</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2063,7 +2060,7 @@
         <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
         <v>65</v>
@@ -2072,7 +2069,7 @@
         <v>73</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2084,7 +2081,7 @@
           <x14:formula1>
             <xm:f>Validate!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E10</xm:sqref>
+          <xm:sqref>B2:B10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2115,10 +2112,10 @@
         <v>78</v>
       </c>
       <c r="C1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" t="s">
         <v>106</v>
-      </c>
-      <c r="D1" t="s">
-        <v>107</v>
       </c>
       <c r="E1" t="s">
         <v>79</v>
@@ -2133,7 +2130,7 @@
         <v>45</v>
       </c>
       <c r="I1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2751,7 +2748,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2765,7 +2762,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2793,7 +2790,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2805,18 +2802,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -2947,7 +2944,7 @@
         <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2963,7 +2960,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
